--- a/lab2_correct.xlsx
+++ b/lab2_correct.xlsx
@@ -2,24 +2,28 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECTS\xls-lab\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16035" windowHeight="10695"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+  <si>
+    <t>График функции y=sin(x)</t>
+  </si>
   <si>
     <t>x</t>
   </si>
@@ -27,7 +31,10 @@
     <t>y=sin(x)</t>
   </si>
   <si>
-    <t>График функции y=sin(x)</t>
+    <t xml:space="preserve">График функции </t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -52,8 +59,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
   </fills>
@@ -67,16 +73,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -86,25 +92,25 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -131,6 +137,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>График функции </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>y=sin(x)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -163,7 +199,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.350972282428185E-2"/>
+          <c:y val="0.2164883478199317"/>
+          <c:w val="0.91298064458807493"/>
+          <c:h val="0.72643963868185513"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -196,7 +242,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$A$4:$A$28</c:f>
+              <c:f>'Лист 1'!$A$4:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -280,7 +326,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$B$4:$B$28</c:f>
+              <c:f>'Лист 1'!$B$4:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -365,7 +411,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-819F-45B1-8D4A-7B5BDDFFBB6D}"/>
+              <c16:uniqueId val="{00000000-E592-40FB-ADB7-132E1DF8F8AA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -377,11 +423,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1569264496"/>
-        <c:axId val="1569262832"/>
+        <c:axId val="19787119"/>
+        <c:axId val="19787951"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1569264496"/>
+        <c:axId val="19787119"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -401,6 +447,70 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000"/>
+                  <a:t>x</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="2000"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.95882779829890052"/>
+              <c:y val="0.51937322334839675"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -438,12 +548,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1569262832"/>
+        <c:crossAx val="19787951"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1569262832"/>
+        <c:axId val="19787951"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -463,6 +573,70 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000"/>
+                  <a:t>y</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="2000"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.4694214061436574"/>
+              <c:y val="0.10315494869256478"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -500,7 +674,639 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1569264496"/>
+        <c:crossAx val="19787119"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>График функции </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.1843319728676227E-2"/>
+          <c:y val="0.15920569746738855"/>
+          <c:w val="0.93681091806235062"/>
+          <c:h val="0.77195923708929282"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Лист 2'!$A$4:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.0000000000000102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Лист 2'!$B$4:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.39999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.19999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.35999999999999988</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.35999999999999988</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.19999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.39999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.0000000000000102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-51FC-47A0-A8CD-81C8388E6865}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="22369743"/>
+        <c:axId val="22361839"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="22369743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000"/>
+                  <a:t>x</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="2000"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.96485426858956902"/>
+              <c:y val="0.86905176823113517"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="22361839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="22361839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000"/>
+                  <a:t>Y</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="2000"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.47412149238920898"/>
+              <c:y val="7.0175222182027153E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="22369743"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -589,6 +1395,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1105,24 +1951,540 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>442912</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>80961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>138112</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1140,10 +2502,72 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2171700" cy="571500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1" descr="Picture"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1151,44 +2575,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1215,15 +2639,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1250,10 +2673,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1262,411 +2684,1205 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A4" sqref="A4:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="1" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>-6</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <f>SIN(A4)</f>
         <v>0.27941549819892586</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>-5.5</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <f t="shared" ref="B5:B28" si="0">SIN(A5)</f>
         <v>0.70554032557039192</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>-5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="2">
         <f t="shared" si="0"/>
         <v>0.95892427466313845</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>-4.5</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="2">
         <f t="shared" si="0"/>
         <v>0.97753011766509701</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>-4</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="2">
         <f t="shared" si="0"/>
         <v>0.7568024953079282</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>-3.5</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="2">
         <f t="shared" si="0"/>
         <v>0.35078322768961984</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>-3</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="2">
         <f t="shared" si="0"/>
         <v>-0.14112000805986721</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>-2.5</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="2">
         <f t="shared" si="0"/>
         <v>-0.59847214410395655</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>-2</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="2">
         <f t="shared" si="0"/>
         <v>-0.90929742682568171</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>-1.5</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="2">
         <f t="shared" si="0"/>
         <v>-0.99749498660405445</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>-1</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="2">
         <f t="shared" si="0"/>
         <v>-0.8414709848078965</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>-0.5</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="2">
         <f t="shared" si="0"/>
         <v>-0.47942553860420301</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>0</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>0.5</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="2">
         <f t="shared" si="0"/>
         <v>0.47942553860420301</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>1</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="2">
         <f t="shared" si="0"/>
         <v>0.8414709848078965</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>1.5</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="2">
         <f t="shared" si="0"/>
         <v>0.99749498660405445</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>2</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="2">
         <f t="shared" si="0"/>
         <v>0.90929742682568171</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>2.5</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="2">
         <f t="shared" si="0"/>
         <v>0.59847214410395655</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>3</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="2">
         <f t="shared" si="0"/>
         <v>0.14112000805986721</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>3.5</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="2">
         <f t="shared" si="0"/>
         <v>-0.35078322768961984</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>4</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="2">
         <f t="shared" si="0"/>
         <v>-0.7568024953079282</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>4.5</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="2">
         <f t="shared" si="0"/>
         <v>-0.97753011766509701</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>5</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="2">
         <f t="shared" si="0"/>
         <v>-0.95892427466313845</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>5.5</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="2">
         <f t="shared" si="0"/>
         <v>-0.70554032557039192</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
         <v>6</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="2">
         <f t="shared" si="0"/>
         <v>-0.27941549819892586</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D9:M27"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>-3</v>
+      </c>
+      <c r="B4" s="2">
+        <f>IF(AND(A4&gt;=-1, A4&lt;=1),1- A4*A4, ABS(A4)-1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>-2.8</v>
+      </c>
+      <c r="B5" s="2">
+        <f t="shared" ref="B5:B34" si="0">IF(AND(A5&gt;=-1, A5&lt;=1),1- A5*A5, ABS(A5)-1)</f>
+        <v>1.7999999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>-2.6</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>-2.4</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>-2</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>-1.8</v>
+      </c>
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>-1.6</v>
+      </c>
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>-1.4</v>
+      </c>
+      <c r="B12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>-1.2</v>
+      </c>
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>-0.8</v>
+      </c>
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.35999999999999988</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>-0.6</v>
+      </c>
+      <c r="B16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.64</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>-0.4</v>
+      </c>
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
+        <v>0.84</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>-0.2</v>
+      </c>
+      <c r="B18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.96</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="B20" s="2">
+        <f t="shared" si="0"/>
+        <v>0.96</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="B21" s="2">
+        <f t="shared" si="0"/>
+        <v>0.84</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="B22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.64</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="B23" s="2">
+        <f t="shared" si="0"/>
+        <v>0.35999999999999988</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="B25" s="2">
+        <f t="shared" si="0"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="B26" s="2">
+        <f t="shared" si="0"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="B27" s="2">
+        <f t="shared" si="0"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="B28" s="2">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>2</v>
+      </c>
+      <c r="B29" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B30" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="B31" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="B32" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>2.80000000000001</v>
+      </c>
+      <c r="B33" s="2">
+        <f t="shared" si="0"/>
+        <v>1.80000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>3.0000000000000102</v>
+      </c>
+      <c r="B34" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000102</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D8:O29"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/lab2_correct.xlsx
+++ b/lab2_correct.xlsx
@@ -467,6 +467,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="ru-RU" sz="2000"/>
+                  <a:t>осьх</a:t>
+                </a:r>
+                <a:r>
                   <a:rPr lang="en-US" sz="2000"/>
                   <a:t>x</a:t>
                 </a:r>
@@ -576,7 +580,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -592,6 +596,10 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="2000"/>
+                  <a:t>осьу</a:t>
+                </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="2000"/>
                   <a:t>y</a:t>
@@ -617,7 +625,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -1099,6 +1107,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="ru-RU" sz="2000"/>
+                  <a:t>осьх</a:t>
+                </a:r>
+                <a:r>
                   <a:rPr lang="en-US" sz="2000"/>
                   <a:t>x</a:t>
                 </a:r>
@@ -1208,7 +1220,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1224,6 +1236,10 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="2000"/>
+                  <a:t>осьу</a:t>
+                </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="2000"/>
                   <a:t>Y</a:t>
@@ -1249,7 +1265,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -2851,8 +2867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B28"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3307,8 +3323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/lab2_correct.xlsx
+++ b/lab2_correct.xlsx
@@ -90,7 +90,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -98,6 +98,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -105,6 +106,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -156,18 +158,33 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>График функции </a:t>
+              <a:rPr lang="ru-RU" sz="2000"/>
+              <a:t>График функции</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>y=sin(x)</a:t>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t> y = s</a:t>
             </a:r>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="2000"/>
+              <a:t>кек</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>in(x)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="2000"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.28090794127750496"/>
+          <c:y val="1.8941507778819866E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -204,10 +221,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.350972282428185E-2"/>
-          <c:y val="0.2164883478199317"/>
-          <c:w val="0.91298064458807493"/>
-          <c:h val="0.72643963868185513"/>
+          <c:x val="0.1458159963659855"/>
+          <c:y val="0.20859559630229926"/>
+          <c:w val="0.72678859325287126"/>
+          <c:h val="0.55543008641005498"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -454,7 +471,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -467,25 +484,21 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="2000"/>
-                  <a:t>осьх</a:t>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Название </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" sz="2000"/>
-                  <a:t>x</a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>sdsd</a:t>
                 </a:r>
-                <a:endParaRPr lang="ru-RU" sz="2000"/>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>оси</a:t>
+                </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.95882779829890052"/>
-              <c:y val="0.51937322334839675"/>
-            </c:manualLayout>
-          </c:layout>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -499,7 +512,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -580,11 +593,11 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -597,25 +610,21 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="2000"/>
-                  <a:t>осьу</a:t>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Назван</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" sz="2000"/>
-                  <a:t>y</a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>sdsd</a:t>
                 </a:r>
-                <a:endParaRPr lang="ru-RU" sz="2000"/>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>ие оси</a:t>
+                </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.4694214061436574"/>
-              <c:y val="0.10315494869256478"/>
-            </c:manualLayout>
-          </c:layout>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -625,11 +634,11 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -694,6 +703,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.88843254267453797"/>
+          <c:y val="0.43230632314775219"/>
+          <c:w val="8.3490878660776285E-2"/>
+          <c:h val="0.1075390038481808"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2487,16 +2537,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>80961</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>280147</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>246528</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>145675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2867,8 +2917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2877,14 +2927,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2947,16 +2997,16 @@
         <f t="shared" si="0"/>
         <v>0.35078322768961984</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -2966,16 +3016,16 @@
         <f t="shared" si="0"/>
         <v>-0.14112000805986721</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -2985,16 +3035,16 @@
         <f t="shared" si="0"/>
         <v>-0.59847214410395655</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -3004,16 +3054,11 @@
         <f t="shared" si="0"/>
         <v>-0.90929742682568171</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -3023,16 +3068,11 @@
         <f t="shared" si="0"/>
         <v>-0.99749498660405445</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -3042,16 +3082,16 @@
         <f t="shared" si="0"/>
         <v>-0.8414709848078965</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -3061,16 +3101,16 @@
         <f t="shared" si="0"/>
         <v>-0.47942553860420301</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -3080,16 +3120,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -3099,16 +3139,16 @@
         <f t="shared" si="0"/>
         <v>0.47942553860420301</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -3118,16 +3158,16 @@
         <f t="shared" si="0"/>
         <v>0.8414709848078965</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -3137,16 +3177,16 @@
         <f t="shared" si="0"/>
         <v>0.99749498660405445</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -3156,16 +3196,16 @@
         <f t="shared" si="0"/>
         <v>0.90929742682568171</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -3175,16 +3215,16 @@
         <f t="shared" si="0"/>
         <v>0.59847214410395655</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
@@ -3194,16 +3234,16 @@
         <f t="shared" si="0"/>
         <v>0.14112000805986721</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
@@ -3213,16 +3253,16 @@
         <f t="shared" si="0"/>
         <v>-0.35078322768961984</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
@@ -3232,16 +3272,16 @@
         <f t="shared" si="0"/>
         <v>-0.7568024953079282</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
@@ -3251,16 +3291,16 @@
         <f t="shared" si="0"/>
         <v>-0.97753011766509701</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
@@ -3270,16 +3310,16 @@
         <f t="shared" si="0"/>
         <v>-0.95892427466313845</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -3289,16 +3329,16 @@
         <f t="shared" si="0"/>
         <v>-0.70554032557039192</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
@@ -3310,9 +3350,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D9:M27"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -3323,7 +3362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
@@ -3333,14 +3372,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -3394,18 +3433,18 @@
         <f t="shared" si="0"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -3415,18 +3454,18 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -3436,18 +3475,18 @@
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -3457,18 +3496,18 @@
         <f t="shared" si="0"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -3478,18 +3517,18 @@
         <f t="shared" si="0"/>
         <v>0.39999999999999991</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -3499,18 +3538,18 @@
         <f t="shared" si="0"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -3520,18 +3559,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -3541,18 +3580,18 @@
         <f t="shared" si="0"/>
         <v>0.35999999999999988</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -3562,18 +3601,18 @@
         <f t="shared" si="0"/>
         <v>0.64</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -3583,18 +3622,18 @@
         <f t="shared" si="0"/>
         <v>0.84</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -3604,18 +3643,18 @@
         <f t="shared" si="0"/>
         <v>0.96</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -3625,18 +3664,18 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -3646,18 +3685,18 @@
         <f t="shared" si="0"/>
         <v>0.96</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -3667,18 +3706,18 @@
         <f t="shared" si="0"/>
         <v>0.84</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
@@ -3688,18 +3727,18 @@
         <f t="shared" si="0"/>
         <v>0.64</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
@@ -3709,18 +3748,18 @@
         <f t="shared" si="0"/>
         <v>0.35999999999999988</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
@@ -3730,18 +3769,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
@@ -3751,18 +3790,18 @@
         <f t="shared" si="0"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
@@ -3772,18 +3811,18 @@
         <f t="shared" si="0"/>
         <v>0.39999999999999991</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -3793,18 +3832,18 @@
         <f t="shared" si="0"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
@@ -3814,18 +3853,18 @@
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
@@ -3835,18 +3874,18 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2">

--- a/lab2_correct.xlsx
+++ b/lab2_correct.xlsx
@@ -99,6 +99,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -106,7 +107,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1158,7 +1158,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ru-RU" sz="2000"/>
-                  <a:t>осьх</a:t>
+                  <a:t>ось</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" baseline="0"/>
+                  <a:t> </a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="2000"/>
@@ -1288,11 +1292,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ru-RU" sz="2000"/>
-                  <a:t>осьу</a:t>
+                  <a:t>ось</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="2000"/>
-                  <a:t>Y</a:t>
+                  <a:t> Y</a:t>
                 </a:r>
                 <a:endParaRPr lang="ru-RU" sz="2000"/>
               </a:p>
@@ -2917,7 +2921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
@@ -2927,14 +2931,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -3002,11 +3006,11 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -3021,11 +3025,11 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -3040,11 +3044,11 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -3054,11 +3058,11 @@
         <f t="shared" si="0"/>
         <v>-0.90929742682568171</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -3068,11 +3072,11 @@
         <f t="shared" si="0"/>
         <v>-0.99749498660405445</v>
       </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -3082,16 +3086,16 @@
         <f t="shared" si="0"/>
         <v>-0.8414709848078965</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -3101,16 +3105,16 @@
         <f t="shared" si="0"/>
         <v>-0.47942553860420301</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -3120,16 +3124,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -3139,16 +3143,16 @@
         <f t="shared" si="0"/>
         <v>0.47942553860420301</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -3158,16 +3162,16 @@
         <f t="shared" si="0"/>
         <v>0.8414709848078965</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -3177,16 +3181,16 @@
         <f t="shared" si="0"/>
         <v>0.99749498660405445</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -3196,16 +3200,16 @@
         <f t="shared" si="0"/>
         <v>0.90929742682568171</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -3215,16 +3219,16 @@
         <f t="shared" si="0"/>
         <v>0.59847214410395655</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
@@ -3234,16 +3238,16 @@
         <f t="shared" si="0"/>
         <v>0.14112000805986721</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
@@ -3253,16 +3257,16 @@
         <f t="shared" si="0"/>
         <v>-0.35078322768961984</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
@@ -3272,16 +3276,16 @@
         <f t="shared" si="0"/>
         <v>-0.7568024953079282</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
@@ -3291,16 +3295,16 @@
         <f t="shared" si="0"/>
         <v>-0.97753011766509701</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
@@ -3310,16 +3314,16 @@
         <f t="shared" si="0"/>
         <v>-0.95892427466313845</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -3329,16 +3333,16 @@
         <f t="shared" si="0"/>
         <v>-0.70554032557039192</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
@@ -3363,7 +3367,7 @@
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3372,14 +3376,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -3433,18 +3437,18 @@
         <f t="shared" si="0"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -3454,18 +3458,18 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -3475,18 +3479,18 @@
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -3496,18 +3500,18 @@
         <f t="shared" si="0"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -3517,18 +3521,18 @@
         <f t="shared" si="0"/>
         <v>0.39999999999999991</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -3538,18 +3542,18 @@
         <f t="shared" si="0"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -3559,18 +3563,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -3580,18 +3584,18 @@
         <f t="shared" si="0"/>
         <v>0.35999999999999988</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -3601,18 +3605,18 @@
         <f t="shared" si="0"/>
         <v>0.64</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -3622,18 +3626,18 @@
         <f t="shared" si="0"/>
         <v>0.84</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -3643,18 +3647,18 @@
         <f t="shared" si="0"/>
         <v>0.96</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -3664,18 +3668,18 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -3685,18 +3689,18 @@
         <f t="shared" si="0"/>
         <v>0.96</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -3706,18 +3710,18 @@
         <f t="shared" si="0"/>
         <v>0.84</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
@@ -3727,18 +3731,18 @@
         <f t="shared" si="0"/>
         <v>0.64</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
@@ -3748,18 +3752,18 @@
         <f t="shared" si="0"/>
         <v>0.35999999999999988</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
@@ -3769,18 +3773,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
@@ -3790,18 +3794,18 @@
         <f t="shared" si="0"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
@@ -3811,18 +3815,18 @@
         <f t="shared" si="0"/>
         <v>0.39999999999999991</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -3832,18 +3836,18 @@
         <f t="shared" si="0"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
@@ -3853,18 +3857,18 @@
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
@@ -3874,18 +3878,18 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2">

--- a/lab2_correct.xlsx
+++ b/lab2_correct.xlsx
@@ -139,52 +139,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="2000"/>
-              <a:t>График функции</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="2000"/>
-              <a:t> y = s</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="2000"/>
-              <a:t>кек</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="2000"/>
-              <a:t>in(x)</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU" sz="2000"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.28090794127750496"/>
-          <c:y val="1.8941507778819866E-2"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -464,70 +419,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>Название </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>sdsd</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>оси</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -610,21 +501,21 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>Назван</a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>LOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOLY</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>sdsd</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>ие оси</a:t>
-                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="7.982952507861249E-2"/>
+              <c:y val="0.11073125903108469"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2541,16 +2432,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>280147</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>123264</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>235324</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>246528</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>145675</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>201705</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2922,7 +2813,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3367,7 +3258,7 @@
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/lab2_correct.xlsx
+++ b/lab2_correct.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16035" windowHeight="10695"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16035" windowHeight="10695" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1" sheetId="1" r:id="rId1"/>
@@ -138,38 +138,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -672,650 +641,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>График функции </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="2.1843319728676227E-2"/>
-          <c:y val="0.15920569746738855"/>
-          <c:w val="0.93681091806235062"/>
-          <c:h val="0.77195923708929282"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Лист 2'!$A$4:$A$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-2.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-2.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-2.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-1.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-1.6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-1.2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-0.4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-0.2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.80000000000001</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.0000000000000102</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Лист 2'!$B$4:$B$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.60000000000000009</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.39999999999999991</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.19999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.35999999999999988</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.64</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.84</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.96</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.96</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.84</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.64</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.35999999999999988</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.19999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.39999999999999991</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.60000000000000009</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.80000000000001</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2.0000000000000102</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-51FC-47A0-A8CD-81C8388E6865}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="22369743"/>
-        <c:axId val="22361839"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="22369743"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ru-RU" sz="2000"/>
-                  <a:t>ось</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="2000" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="2000"/>
-                  <a:t>x</a:t>
-                </a:r>
-                <a:endParaRPr lang="ru-RU" sz="2000"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.96485426858956902"/>
-              <c:y val="0.86905176823113517"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="22361839"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="22361839"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ru-RU" sz="2000"/>
-                  <a:t>ось</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="2000"/>
-                  <a:t> Y</a:t>
-                </a:r>
-                <a:endParaRPr lang="ru-RU" sz="2000"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.47412149238920898"/>
-              <c:y val="7.0175222182027153E-2"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="22369743"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1356,563 +681,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2492,36 +1261,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>14286</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2812,8 +1551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3257,8 +1996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
